--- a/results_Potential.xlsx
+++ b/results_Potential.xlsx
@@ -36,7 +36,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -46,7 +46,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -108,22 +108,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -553,21 +553,26 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -575,7 +580,7 @@
       <c r="K1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -583,121 +588,106 @@
       <c r="M1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="n">
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q1" s="6" t="n">
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S1" s="7" t="n">
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="n">
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W1" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n">
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AD1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="5" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="5" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE2" s="5" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -707,9 +697,9 @@
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="5" t="inlineStr">
-        <is>
-          <t>0 → 5</t>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>1 → 7</t>
         </is>
       </c>
     </row>
@@ -717,7 +707,7 @@
       <c r="A3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -725,86 +715,91 @@
       <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n">
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q3" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="n">
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W3" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="X3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y3" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AD3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE3" s="6" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="9" t="inlineStr">
@@ -812,44 +807,44 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="5" t="inlineStr">
-        <is>
-          <t>3 → 5</t>
+      <c r="AH3" s="3" t="inlineStr">
+        <is>
+          <t>3 → 6</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W4" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AC4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC4" s="3" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -859,9 +854,9 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="5" t="inlineStr">
-        <is>
-          <t>3 → 6</t>
+      <c r="AH4" s="3" t="inlineStr">
+        <is>
+          <t>1 → 5</t>
         </is>
       </c>
     </row>
@@ -869,7 +864,7 @@
       <c r="A5" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -877,76 +872,106 @@
       <c r="C5" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n">
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O5" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y5" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="n">
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="7" t="n">
         <v>45</v>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="AC5" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE5" s="6" t="n">
         <v>47</v>
       </c>
       <c r="AG5" s="11" t="inlineStr">
@@ -954,49 +979,49 @@
           <t>car 3</t>
         </is>
       </c>
-      <c r="AH5" s="5" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH5" s="3" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE6" s="5" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AC6" s="3" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
@@ -1006,9 +1031,9 @@
           <t>dummy car</t>
         </is>
       </c>
-      <c r="AH6" s="5" t="inlineStr">
-        <is>
-          <t>1 → 5</t>
+      <c r="AH6" s="3" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
@@ -1016,114 +1041,89 @@
       <c r="A7" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="C7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="n">
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="n">
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="n">
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="3" t="n">
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="1" t="n">
         <v>61</v>
       </c>
       <c r="AC7" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="AD7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AD7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE7" s="6" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -1195,136 +1195,156 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="n">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="n">
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="n">
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="K1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="M1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q1" s="7" t="n">
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S1" s="6" t="n">
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="n">
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W1" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y1" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n">
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AD1" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="5" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="5" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA2" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
         <is>
           <t>↓</t>
         </is>
@@ -1334,9 +1354,9 @@
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="5" t="inlineStr">
-        <is>
-          <t>0 → 5</t>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>1 → 7</t>
         </is>
       </c>
     </row>
@@ -1347,81 +1367,76 @@
       <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n">
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U3" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W3" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AB3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AD3" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AD3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AE3" s="6" t="n">
         <v>31</v>
       </c>
       <c r="AG3" s="9" t="inlineStr">
@@ -1429,51 +1444,51 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="5" t="inlineStr">
-        <is>
-          <t>3 → 5</t>
+      <c r="AH3" s="3" t="inlineStr">
+        <is>
+          <t>3 → 6</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE4" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE4" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AG4" s="10" t="inlineStr">
@@ -1481,9 +1496,9 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="5" t="inlineStr">
-        <is>
-          <t>3 → 6</t>
+      <c r="AH4" s="3" t="inlineStr">
+        <is>
+          <t>1 → 5</t>
         </is>
       </c>
     </row>
@@ -1491,109 +1506,99 @@
       <c r="A5" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="n">
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O5" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q5" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="n">
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="n">
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="n">
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="7" t="n">
         <v>45</v>
-      </c>
-      <c r="AB5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="AC5" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE5" s="6" t="n">
         <v>47</v>
       </c>
       <c r="AG5" s="11" t="inlineStr">
@@ -1601,59 +1606,49 @@
           <t>car 3</t>
         </is>
       </c>
-      <c r="AH5" s="5" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH5" s="3" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AE6" s="5" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE6" s="3" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1663,9 +1658,9 @@
           <t>dummy car</t>
         </is>
       </c>
-      <c r="AH6" s="5" t="inlineStr">
-        <is>
-          <t>1 → 5</t>
+      <c r="AH6" s="3" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
@@ -1673,86 +1668,91 @@
       <c r="A7" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="n">
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="n">
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA7" s="3" t="n">
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="5" t="inlineStr">
+      <c r="AB7" s="3" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -1760,7 +1760,7 @@
       <c r="AC7" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AE7" s="6" t="n">
         <v>63</v>
       </c>
     </row>

--- a/results_Potential.xlsx
+++ b/results_Potential.xlsx
@@ -36,7 +36,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -51,7 +51,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -105,9 +105,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -117,16 +114,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,172 +550,187 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="n">
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="n">
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="n">
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="n">
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="7" t="n">
+      <c r="W1" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Y1" s="7" t="n">
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y1" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="AC1" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>3 → 6</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -723,78 +738,73 @@
       <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="K3" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W3" s="7" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="X3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y3" s="7" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
       <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AD3" s="3" t="inlineStr">
+      <c r="AD3" s="2" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -807,44 +817,49 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>3 → 6</t>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>1 → 5</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AC4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC4" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -854,119 +869,89 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="3" t="inlineStr">
-        <is>
-          <t>1 → 5</t>
+      <c r="AH4" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U5" s="7" t="n">
+      <c r="U5" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="X5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Y5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA5" s="7" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AB5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="3" t="inlineStr">
+      <c r="AD5" s="2" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -979,51 +964,46 @@
           <t>car 3</t>
         </is>
       </c>
-      <c r="AH5" s="3" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AC6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
         </is>
       </c>
       <c r="AG6" s="12" t="inlineStr">
@@ -1031,94 +1011,114 @@
           <t>dummy car</t>
         </is>
       </c>
-      <c r="AH6" s="3" t="inlineStr">
-        <is>
-          <t>1 → 9</t>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>1 → 8</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S7" s="1" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="1" t="n">
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U7" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="W7" s="1" t="n">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W7" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Y7" s="1" t="n">
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Y7" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC7" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="AD7" s="3" t="inlineStr">
+      <c r="AD7" s="2" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -1187,106 +1187,91 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="n">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="n">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="n">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="n">
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="n">
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="n">
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="n">
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="n">
+      <c r="U1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W1" s="7" t="n">
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="X1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Y1" s="7" t="n">
+      <c r="Y1" s="6" t="n">
         <v>12</v>
-      </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="AA1" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -1297,133 +1282,158 @@
       <c r="AE1" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>LP → DP</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AG2" s="8" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="AG2" s="7" t="inlineStr">
         <is>
           <t>car 0</t>
         </is>
       </c>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>1 → 7</t>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>3 → 6</t>
         </is>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
       </c>
       <c r="E3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="G3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>20</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
       </c>
       <c r="K3" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U3" s="7" t="n">
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W3" s="7" t="n">
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="Z3" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AB3" s="3" t="inlineStr">
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -1431,11 +1441,6 @@
       <c r="AC3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AD3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="AE3" s="6" t="n">
         <v>31</v>
       </c>
@@ -1444,51 +1449,46 @@
           <t>car 1</t>
         </is>
       </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>3 → 6</t>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>1 → 5</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE4" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AE4" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
         </is>
       </c>
       <c r="AG4" s="10" t="inlineStr">
@@ -1496,106 +1496,111 @@
           <t>car 2</t>
         </is>
       </c>
-      <c r="AH4" s="3" t="inlineStr">
-        <is>
-          <t>1 → 5</t>
+      <c r="AH4" s="2" t="inlineStr">
+        <is>
+          <t>0 → 6</t>
         </is>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
         </is>
       </c>
       <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U5" s="7" t="n">
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Y5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA5" s="7" t="n">
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC5" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="AE5" s="6" t="n">
@@ -1606,49 +1611,54 @@
           <t>car 3</t>
         </is>
       </c>
-      <c r="AH5" s="3" t="inlineStr">
-        <is>
-          <t>0 → 6</t>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>1 → 9</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="AA6" s="3" t="inlineStr">
-        <is>
-          <t>↑</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
         <is>
           <t>↑</t>
         </is>
@@ -1658,107 +1668,97 @@
           <t>dummy car</t>
         </is>
       </c>
-      <c r="AH6" s="3" t="inlineStr">
-        <is>
-          <t>1 → 9</t>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>1 → 8</t>
         </is>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W7" s="1" t="n">
+      <c r="W7" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Y7" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" s="3" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AA7" s="1" t="n">
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AC7" s="6" t="n">
         <v>62</v>
+      </c>
+      <c r="AD7" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
       </c>
       <c r="AE7" s="6" t="n">
         <v>63</v>
